--- a/resources/difficulty.xlsx
+++ b/resources/difficulty.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="B3:I191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <f>D4*C4</f>
+        <f t="shared" ref="E4:E16" si="0">D4*C4</f>
         <v>9</v>
       </c>
       <c r="F4">
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <f>D5*C5</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="F5">
@@ -483,11 +483,11 @@
         <v>7</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H68" si="0">E5*POWER(F5,7)*I5</f>
+        <f t="shared" ref="H5:H68" si="1">E5*POWER(F5,7)*I5</f>
         <v>390625</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I18" si="1">F5/E5</f>
+        <f t="shared" ref="I5:I18" si="2">F5/E5</f>
         <v>0.1388888888888889</v>
       </c>
     </row>
@@ -499,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <f>D6*C6</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="F6">
@@ -509,11 +509,11 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16777216</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22222222222222221</v>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <f>D7*C7</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="F7">
@@ -535,11 +535,11 @@
         <v>7</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16777216</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <f>D8*C8</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="F8">
@@ -561,11 +561,11 @@
         <v>9</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27777777777777779</v>
       </c>
     </row>
@@ -577,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <f>D9*C9</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="F9">
@@ -587,11 +587,11 @@
         <v>9</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1388888888888889</v>
       </c>
     </row>
@@ -603,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <f>D10*C10</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="F10">
@@ -613,11 +613,11 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>429981696</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -629,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <f>D11*C11</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="F11">
@@ -639,11 +639,11 @@
         <v>6</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6561</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -655,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <f>D12*C12</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="F12">
@@ -665,11 +665,11 @@
         <v>6</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>390625</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9444444444444448E-2</v>
       </c>
     </row>
@@ -681,7 +681,7 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <f>D13*C13</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="F13">
@@ -691,11 +691,11 @@
         <v>10</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>429981696</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -707,36 +707,39 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <f>D14*C14</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <f>D15*C15</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>429981696</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.24489795918367346</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -747,18 +750,18 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <f>D16*C16</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -770,18 +773,18 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:E67" si="2">D17*C17</f>
+        <f t="shared" ref="E17:E67" si="3">D17*C17</f>
         <v>100</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
     </row>
@@ -793,258 +796,258 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="F18">
         <v>10</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1053,11 +1056,11 @@
         <v>41</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1066,11 +1069,11 @@
         <v>42</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1079,11 +1082,11 @@
         <v>43</v>
       </c>
       <c r="E45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1092,11 +1095,11 @@
         <v>44</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1105,11 +1108,11 @@
         <v>45</v>
       </c>
       <c r="E47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1118,11 +1121,11 @@
         <v>46</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1131,11 +1134,11 @@
         <v>47</v>
       </c>
       <c r="E49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1144,11 +1147,11 @@
         <v>48</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1157,11 +1160,11 @@
         <v>49</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1170,11 +1173,11 @@
         <v>50</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1183,11 +1186,11 @@
         <v>51</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1196,11 +1199,11 @@
         <v>52</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1209,11 +1212,11 @@
         <v>53</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1222,11 +1225,11 @@
         <v>54</v>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1235,11 +1238,11 @@
         <v>55</v>
       </c>
       <c r="E57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1248,11 +1251,11 @@
         <v>56</v>
       </c>
       <c r="E58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1261,11 +1264,11 @@
         <v>57</v>
       </c>
       <c r="E59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1274,11 +1277,11 @@
         <v>58</v>
       </c>
       <c r="E60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1287,11 +1290,11 @@
         <v>59</v>
       </c>
       <c r="E61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1300,11 +1303,11 @@
         <v>60</v>
       </c>
       <c r="E62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1313,11 +1316,11 @@
         <v>61</v>
       </c>
       <c r="E63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1326,11 +1329,11 @@
         <v>62</v>
       </c>
       <c r="E64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1339,11 +1342,11 @@
         <v>63</v>
       </c>
       <c r="E65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1352,11 +1355,11 @@
         <v>64</v>
       </c>
       <c r="E66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1365,11 +1368,11 @@
         <v>65</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1378,11 +1381,11 @@
         <v>66</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E131" si="3">D68*C68</f>
+        <f t="shared" ref="E68:E131" si="4">D68*C68</f>
         <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1391,11 +1394,11 @@
         <v>67</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H69">
-        <f t="shared" ref="H69:H132" si="4">E69*POWER(F69,7)*I69</f>
+        <f t="shared" ref="H69:H132" si="5">E69*POWER(F69,7)*I69</f>
         <v>0</v>
       </c>
     </row>
@@ -1404,11 +1407,11 @@
         <v>68</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1417,11 +1420,11 @@
         <v>69</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1430,11 +1433,11 @@
         <v>70</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1443,11 +1446,11 @@
         <v>71</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1456,11 +1459,11 @@
         <v>72</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1469,11 +1472,11 @@
         <v>73</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1482,11 +1485,11 @@
         <v>74</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1495,11 +1498,11 @@
         <v>75</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1508,11 +1511,11 @@
         <v>76</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1521,11 +1524,11 @@
         <v>77</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1534,11 +1537,11 @@
         <v>78</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1547,11 +1550,11 @@
         <v>79</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1560,11 +1563,11 @@
         <v>80</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1573,11 +1576,11 @@
         <v>81</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1586,11 +1589,11 @@
         <v>82</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1599,11 +1602,11 @@
         <v>83</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1612,11 +1615,11 @@
         <v>84</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1625,11 +1628,11 @@
         <v>85</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1638,11 +1641,11 @@
         <v>86</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1651,11 +1654,11 @@
         <v>87</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1664,11 +1667,11 @@
         <v>88</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1677,11 +1680,11 @@
         <v>89</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1690,11 +1693,11 @@
         <v>90</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1703,11 +1706,11 @@
         <v>91</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1716,11 +1719,11 @@
         <v>92</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1729,11 +1732,11 @@
         <v>93</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1742,11 +1745,11 @@
         <v>94</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1755,11 +1758,11 @@
         <v>95</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1768,11 +1771,11 @@
         <v>96</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1781,11 +1784,11 @@
         <v>97</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1794,11 +1797,11 @@
         <v>98</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1807,11 +1810,11 @@
         <v>99</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1820,11 +1823,11 @@
         <v>100</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1833,11 +1836,11 @@
         <v>101</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1846,11 +1849,11 @@
         <v>102</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1859,11 +1862,11 @@
         <v>103</v>
       </c>
       <c r="E105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1872,11 +1875,11 @@
         <v>104</v>
       </c>
       <c r="E106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1885,11 +1888,11 @@
         <v>105</v>
       </c>
       <c r="E107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1898,11 +1901,11 @@
         <v>106</v>
       </c>
       <c r="E108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1911,11 +1914,11 @@
         <v>107</v>
       </c>
       <c r="E109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1924,11 +1927,11 @@
         <v>108</v>
       </c>
       <c r="E110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1937,11 +1940,11 @@
         <v>109</v>
       </c>
       <c r="E111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1950,11 +1953,11 @@
         <v>110</v>
       </c>
       <c r="E112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1963,11 +1966,11 @@
         <v>111</v>
       </c>
       <c r="E113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1976,11 +1979,11 @@
         <v>112</v>
       </c>
       <c r="E114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1989,11 +1992,11 @@
         <v>113</v>
       </c>
       <c r="E115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2002,11 +2005,11 @@
         <v>114</v>
       </c>
       <c r="E116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2015,11 +2018,11 @@
         <v>115</v>
       </c>
       <c r="E117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2028,11 +2031,11 @@
         <v>116</v>
       </c>
       <c r="E118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2041,11 +2044,11 @@
         <v>117</v>
       </c>
       <c r="E119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2054,11 +2057,11 @@
         <v>118</v>
       </c>
       <c r="E120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2067,11 +2070,11 @@
         <v>119</v>
       </c>
       <c r="E121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2080,11 +2083,11 @@
         <v>120</v>
       </c>
       <c r="E122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2093,11 +2096,11 @@
         <v>121</v>
       </c>
       <c r="E123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2106,11 +2109,11 @@
         <v>122</v>
       </c>
       <c r="E124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2119,11 +2122,11 @@
         <v>123</v>
       </c>
       <c r="E125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2132,11 +2135,11 @@
         <v>124</v>
       </c>
       <c r="E126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2145,11 +2148,11 @@
         <v>125</v>
       </c>
       <c r="E127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2158,11 +2161,11 @@
         <v>126</v>
       </c>
       <c r="E128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2171,11 +2174,11 @@
         <v>127</v>
       </c>
       <c r="E129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2184,11 +2187,11 @@
         <v>128</v>
       </c>
       <c r="E130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2197,11 +2200,11 @@
         <v>129</v>
       </c>
       <c r="E131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2210,11 +2213,11 @@
         <v>130</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E191" si="5">D132*C132</f>
+        <f t="shared" ref="E132:E191" si="6">D132*C132</f>
         <v>0</v>
       </c>
       <c r="H132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2223,11 +2226,11 @@
         <v>131</v>
       </c>
       <c r="E133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H133">
-        <f t="shared" ref="H133:H191" si="6">E133*POWER(F133,7)*I133</f>
+        <f t="shared" ref="H133:H191" si="7">E133*POWER(F133,7)*I133</f>
         <v>0</v>
       </c>
     </row>
@@ -2236,11 +2239,11 @@
         <v>132</v>
       </c>
       <c r="E134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2249,11 +2252,11 @@
         <v>133</v>
       </c>
       <c r="E135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2262,11 +2265,11 @@
         <v>134</v>
       </c>
       <c r="E136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2275,11 +2278,11 @@
         <v>135</v>
       </c>
       <c r="E137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2288,11 +2291,11 @@
         <v>136</v>
       </c>
       <c r="E138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2301,11 +2304,11 @@
         <v>137</v>
       </c>
       <c r="E139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2314,11 +2317,11 @@
         <v>138</v>
       </c>
       <c r="E140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2327,11 +2330,11 @@
         <v>139</v>
       </c>
       <c r="E141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2340,11 +2343,11 @@
         <v>140</v>
       </c>
       <c r="E142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2353,11 +2356,11 @@
         <v>141</v>
       </c>
       <c r="E143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2366,11 +2369,11 @@
         <v>142</v>
       </c>
       <c r="E144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2379,11 +2382,11 @@
         <v>143</v>
       </c>
       <c r="E145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2392,11 +2395,11 @@
         <v>144</v>
       </c>
       <c r="E146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2405,11 +2408,11 @@
         <v>145</v>
       </c>
       <c r="E147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2418,11 +2421,11 @@
         <v>146</v>
       </c>
       <c r="E148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2431,11 +2434,11 @@
         <v>147</v>
       </c>
       <c r="E149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2444,11 +2447,11 @@
         <v>148</v>
       </c>
       <c r="E150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2457,11 +2460,11 @@
         <v>149</v>
       </c>
       <c r="E151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2470,11 +2473,11 @@
         <v>150</v>
       </c>
       <c r="E152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2483,11 +2486,11 @@
         <v>151</v>
       </c>
       <c r="E153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2496,11 +2499,11 @@
         <v>152</v>
       </c>
       <c r="E154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2509,11 +2512,11 @@
         <v>153</v>
       </c>
       <c r="E155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2522,11 +2525,11 @@
         <v>154</v>
       </c>
       <c r="E156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2535,11 +2538,11 @@
         <v>155</v>
       </c>
       <c r="E157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2548,11 +2551,11 @@
         <v>156</v>
       </c>
       <c r="E158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2561,11 +2564,11 @@
         <v>157</v>
       </c>
       <c r="E159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2574,11 +2577,11 @@
         <v>158</v>
       </c>
       <c r="E160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2587,11 +2590,11 @@
         <v>159</v>
       </c>
       <c r="E161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2600,11 +2603,11 @@
         <v>160</v>
       </c>
       <c r="E162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2613,11 +2616,11 @@
         <v>161</v>
       </c>
       <c r="E163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2626,11 +2629,11 @@
         <v>162</v>
       </c>
       <c r="E164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2639,11 +2642,11 @@
         <v>163</v>
       </c>
       <c r="E165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2652,11 +2655,11 @@
         <v>164</v>
       </c>
       <c r="E166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2665,11 +2668,11 @@
         <v>165</v>
       </c>
       <c r="E167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2678,11 +2681,11 @@
         <v>166</v>
       </c>
       <c r="E168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2691,11 +2694,11 @@
         <v>167</v>
       </c>
       <c r="E169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2704,11 +2707,11 @@
         <v>168</v>
       </c>
       <c r="E170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2717,11 +2720,11 @@
         <v>169</v>
       </c>
       <c r="E171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2730,11 +2733,11 @@
         <v>170</v>
       </c>
       <c r="E172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2743,11 +2746,11 @@
         <v>171</v>
       </c>
       <c r="E173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2756,11 +2759,11 @@
         <v>172</v>
       </c>
       <c r="E174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2769,11 +2772,11 @@
         <v>173</v>
       </c>
       <c r="E175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2782,11 +2785,11 @@
         <v>174</v>
       </c>
       <c r="E176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2795,11 +2798,11 @@
         <v>175</v>
       </c>
       <c r="E177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2808,11 +2811,11 @@
         <v>176</v>
       </c>
       <c r="E178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2821,11 +2824,11 @@
         <v>177</v>
       </c>
       <c r="E179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2834,11 +2837,11 @@
         <v>178</v>
       </c>
       <c r="E180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2847,11 +2850,11 @@
         <v>179</v>
       </c>
       <c r="E181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2860,11 +2863,11 @@
         <v>180</v>
       </c>
       <c r="E182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2873,11 +2876,11 @@
         <v>181</v>
       </c>
       <c r="E183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2886,11 +2889,11 @@
         <v>182</v>
       </c>
       <c r="E184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2899,11 +2902,11 @@
         <v>183</v>
       </c>
       <c r="E185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2912,11 +2915,11 @@
         <v>184</v>
       </c>
       <c r="E186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2925,11 +2928,11 @@
         <v>185</v>
       </c>
       <c r="E187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2938,11 +2941,11 @@
         <v>186</v>
       </c>
       <c r="E188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2951,11 +2954,11 @@
         <v>187</v>
       </c>
       <c r="E189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2964,11 +2967,11 @@
         <v>188</v>
       </c>
       <c r="E190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2977,11 +2980,11 @@
         <v>189</v>
       </c>
       <c r="E191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>

--- a/resources/difficulty.xlsx
+++ b/resources/difficulty.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Level</t>
   </si>
@@ -50,19 +50,31 @@
     <t>Nb Shapes</t>
   </si>
   <si>
-    <t>ultra easy</t>
+    <t>12 shapes</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>Normal</t>
   </si>
   <si>
-    <t>impossible</t>
+    <t>shapes</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>nbcel</t>
   </si>
   <si>
-    <t>very hard</t>
+    <t>50/70</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Meidum</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Master</t>
   </si>
 </sst>
 </file>
@@ -414,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I191"/>
+  <dimension ref="B3:M191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -442,16 +454,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E16" si="0">D4*C4</f>
-        <v>9</v>
+        <f t="shared" ref="E4:E18" si="0">D4*C4</f>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -462,88 +477,109 @@
       </c>
       <c r="I4">
         <f>F4/E4</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
       <c r="C5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H68" si="1">E5*POWER(F5,7)*I5</f>
-        <v>390625</v>
+        <v>65536</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I18" si="2">F5/E5</f>
-        <v>0.1388888888888889</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>16777216</v>
+        <v>390625</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
       <c r="C7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>16777216</v>
+        <v>1679616</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
       <c r="C8">
         <v>6</v>
       </c>
@@ -555,303 +591,315 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>100000000</v>
+        <v>5764801</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>0.27777777777777779</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
       <c r="C9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>100000000</v>
+        <v>16777216</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>0.1388888888888889</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
       <c r="C10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>429981696</v>
+        <v>1679616</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.12244897959183673</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>11</v>
+      </c>
+      <c r="M10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
       <c r="C11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>6561</v>
+        <v>5764801</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
       <c r="C12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>390625</v>
+        <v>16777215.999999998</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>6.9444444444444448E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.16326530612244897</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
       <c r="C13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>429981696</v>
+        <v>43046721</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
+        <v>0.18367346938775511</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="F15">
-        <v>12</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>429981696</v>
-      </c>
-      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" t="e">
         <f t="shared" si="2"/>
-        <v>0.24489795918367346</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" t="e">
         <f t="shared" si="2"/>
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:E67" si="3">D17*C17</f>
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" t="e">
         <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E17:E67" si="3">D19*C19</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>20</v>
       </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>100000000</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E23">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -861,7 +909,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>21</v>
+      </c>
       <c r="E24">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -871,7 +922,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>22</v>
+      </c>
       <c r="E25">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -881,7 +935,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>23</v>
+      </c>
       <c r="E26">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -891,7 +948,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>24</v>
+      </c>
       <c r="E27">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -901,7 +961,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>25</v>
+      </c>
       <c r="E28">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -911,7 +974,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>26</v>
+      </c>
       <c r="E29">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -921,7 +987,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>27</v>
+      </c>
       <c r="E30">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -931,7 +1000,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>28</v>
+      </c>
       <c r="E31">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -941,7 +1013,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>29</v>
+      </c>
       <c r="E32">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -952,6 +1027,9 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>30</v>
+      </c>
       <c r="E33">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -962,6 +1040,9 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>31</v>
+      </c>
       <c r="E34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -972,6 +1053,9 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>32</v>
+      </c>
       <c r="E35">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -982,6 +1066,9 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>33</v>
+      </c>
       <c r="E36">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -992,6 +1079,9 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>34</v>
+      </c>
       <c r="E37">
         <f t="shared" si="3"/>
         <v>0</v>
